--- a/artfynd/A 35779-2023.xlsx
+++ b/artfynd/A 35779-2023.xlsx
@@ -683,7 +683,7 @@
         <v>112234707</v>
       </c>
       <c r="B2" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -804,10 +804,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112234736</v>
+        <v>112234730</v>
       </c>
       <c r="B3" t="n">
-        <v>98535</v>
+        <v>96720</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -816,29 +816,37 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr">
         <is>
           <t>fullt utvecklade blad</t>
@@ -888,6 +896,11 @@
       <c r="AA3" t="inlineStr">
         <is>
           <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Mer än 60 ex.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -920,10 +933,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112234730</v>
+        <v>112234736</v>
       </c>
       <c r="B4" t="n">
-        <v>96348</v>
+        <v>98961</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -932,37 +945,29 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
           <t>fullt utvecklade blad</t>
@@ -1012,11 +1017,6 @@
       <c r="AA4" t="inlineStr">
         <is>
           <t>2023-09-21</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>Mer än 60 ex.</t>
         </is>
       </c>
       <c r="AD4" t="b">

--- a/artfynd/A 35779-2023.xlsx
+++ b/artfynd/A 35779-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112234707</v>
+        <v>112234730</v>
       </c>
       <c r="B2" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -715,7 +715,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>60</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -725,21 +725,21 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>överblommad</t>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Djupsund ONO 338 m, Ög</t>
+          <t>Djupsund ONO 345 m, Ög</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>567849</v>
+        <v>567854</v>
       </c>
       <c r="R2" t="n">
-        <v>6511980</v>
+        <v>6511993</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -772,6 +772,11 @@
       <c r="AA2" t="inlineStr">
         <is>
           <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>Mer än 60 ex.</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -804,10 +809,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112234730</v>
+        <v>112234707</v>
       </c>
       <c r="B3" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -839,7 +844,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>7</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -849,21 +854,21 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>fullt utvecklade blad</t>
+          <t>överblommad</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Djupsund ONO 345 m, Ög</t>
+          <t>Djupsund ONO 338 m, Ög</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>567854</v>
+        <v>567849</v>
       </c>
       <c r="R3" t="n">
-        <v>6511993</v>
+        <v>6511980</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -896,11 +901,6 @@
       <c r="AA3" t="inlineStr">
         <is>
           <t>2023-09-21</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>Mer än 60 ex.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -936,7 +936,7 @@
         <v>112234736</v>
       </c>
       <c r="B4" t="n">
-        <v>98961</v>
+        <v>98980</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>

--- a/artfynd/A 35779-2023.xlsx
+++ b/artfynd/A 35779-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112234730</v>
+        <v>112234707</v>
       </c>
       <c r="B2" t="n">
         <v>96735</v>
@@ -715,7 +715,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>7</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -725,21 +725,21 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>fullt utvecklade blad</t>
+          <t>överblommad</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Djupsund ONO 345 m, Ög</t>
+          <t>Djupsund ONO 338 m, Ög</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>567854</v>
+        <v>567849</v>
       </c>
       <c r="R2" t="n">
-        <v>6511993</v>
+        <v>6511980</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -772,11 +772,6 @@
       <c r="AA2" t="inlineStr">
         <is>
           <t>2023-09-21</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>Mer än 60 ex.</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -809,7 +804,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112234707</v>
+        <v>112234730</v>
       </c>
       <c r="B3" t="n">
         <v>96735</v>
@@ -844,7 +839,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>60</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -854,21 +849,21 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>överblommad</t>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Djupsund ONO 338 m, Ög</t>
+          <t>Djupsund ONO 345 m, Ög</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>567849</v>
+        <v>567854</v>
       </c>
       <c r="R3" t="n">
-        <v>6511980</v>
+        <v>6511993</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -901,6 +896,11 @@
       <c r="AA3" t="inlineStr">
         <is>
           <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Mer än 60 ex.</t>
         </is>
       </c>
       <c r="AD3" t="b">
